--- a/Running projects/TOMO II/Running Bill No 1.xlsx
+++ b/Running projects/TOMO II/Running Bill No 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pioneer\Running projects\TOMO II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78170D69-3931-4B7F-A924-1E566A978A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{044460D7-AA7D-44BE-B952-5A717BC67C2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,6 +641,9 @@
     <xf numFmtId="10" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -650,6 +653,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -661,27 +682,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -990,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N43" sqref="N43"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
@@ -1012,18 +1012,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
       <c r="K1" s="34"/>
     </row>
     <row r="2" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1040,20 +1040,20 @@
       <c r="K2" s="15"/>
     </row>
     <row r="3" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="46" t="s">
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
-      <c r="J3" s="48"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="43"/>
       <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:14" s="5" customFormat="1" ht="31.5" x14ac:dyDescent="0.2">
@@ -1854,7 +1854,7 @@
         <v>60000</v>
       </c>
       <c r="G25" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="7">
         <f t="shared" si="0"/>
@@ -1862,11 +1862,11 @@
       </c>
       <c r="I25" s="7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="J25" s="7">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>60000</v>
       </c>
       <c r="K25" s="6"/>
       <c r="L25" s="3">
@@ -1948,10 +1948,10 @@
       <c r="N27" s="30"/>
     </row>
     <row r="28" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44" t="s">
+      <c r="A28" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="44"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="25"/>
       <c r="D28" s="26"/>
       <c r="E28" s="24"/>
@@ -1961,7 +1961,7 @@
       <c r="I28" s="24"/>
       <c r="J28" s="27">
         <f>SUM(J5:J27)</f>
-        <v>9754800</v>
+        <v>9814800</v>
       </c>
       <c r="K28" s="6"/>
       <c r="N28" s="30"/>
@@ -2073,7 +2073,7 @@
         <v>30000</v>
       </c>
       <c r="G32" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H32" s="24">
         <f t="shared" si="6"/>
@@ -2081,11 +2081,11 @@
       </c>
       <c r="I32" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="J32" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>30000</v>
       </c>
       <c r="K32" s="6"/>
       <c r="N32" s="30"/>
@@ -2108,7 +2108,7 @@
         <v>90000</v>
       </c>
       <c r="G33" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33" s="24">
         <f t="shared" si="6"/>
@@ -2116,11 +2116,11 @@
       </c>
       <c r="I33" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="J33" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>90000</v>
       </c>
       <c r="K33" s="6"/>
       <c r="N33" s="30"/>
@@ -2143,7 +2143,7 @@
         <v>75000</v>
       </c>
       <c r="G34" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H34" s="24">
         <f t="shared" si="6"/>
@@ -2151,11 +2151,11 @@
       </c>
       <c r="I34" s="24">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="J34" s="24">
         <f t="shared" si="8"/>
-        <v>0</v>
+        <v>75000</v>
       </c>
       <c r="K34" s="6"/>
     </row>
@@ -2194,32 +2194,32 @@
       <c r="K35" s="6"/>
     </row>
     <row r="36" spans="1:14" ht="18.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="36" t="s">
+      <c r="A36" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="B36" s="37"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="38"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="39"/>
       <c r="G36" s="32"/>
       <c r="H36" s="32"/>
       <c r="I36" s="32"/>
       <c r="J36" s="20">
         <f>J35+J34+J33+J32+J29+J28</f>
-        <v>10954800</v>
+        <v>11209800</v>
       </c>
       <c r="K36" s="6"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="36" t="s">
+      <c r="A37" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="B37" s="37"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="38"/>
+      <c r="F37" s="39"/>
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="35">
@@ -2227,38 +2227,38 @@
       </c>
       <c r="J37" s="11">
         <f>J36*18.79%</f>
-        <v>2058406.92</v>
+        <v>2106321.42</v>
       </c>
       <c r="K37" s="6"/>
       <c r="N37" s="33"/>
     </row>
     <row r="38" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="39" t="s">
+      <c r="A38" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B38" s="40"/>
-      <c r="C38" s="40"/>
-      <c r="D38" s="40"/>
-      <c r="E38" s="40"/>
-      <c r="F38" s="41"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="47"/>
+      <c r="D38" s="47"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="48"/>
       <c r="G38" s="14"/>
       <c r="H38" s="14"/>
       <c r="I38" s="14"/>
       <c r="J38" s="11">
         <f>J36-J37</f>
-        <v>8896393.0800000001</v>
+        <v>9103478.5800000001</v>
       </c>
       <c r="K38" s="6"/>
     </row>
     <row r="39" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+      <c r="A39" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="B39" s="37"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="37"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="38"/>
+      <c r="B39" s="38"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="38"/>
+      <c r="F39" s="39"/>
       <c r="G39" s="14"/>
       <c r="H39" s="14"/>
       <c r="I39" s="35">
@@ -2266,38 +2266,38 @@
       </c>
       <c r="J39" s="11">
         <f>J38*10.18%</f>
-        <v>905652.81554400001</v>
+        <v>926734.11944400007</v>
       </c>
       <c r="K39" s="6"/>
       <c r="N39" s="33"/>
     </row>
     <row r="40" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="B40" s="40"/>
-      <c r="C40" s="40"/>
-      <c r="D40" s="40"/>
-      <c r="E40" s="40"/>
-      <c r="F40" s="41"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="47"/>
+      <c r="D40" s="47"/>
+      <c r="E40" s="47"/>
+      <c r="F40" s="48"/>
       <c r="G40" s="14"/>
       <c r="H40" s="14"/>
       <c r="I40" s="14"/>
       <c r="J40" s="11">
         <f>J38-J39</f>
-        <v>7990740.2644560002</v>
+        <v>8176744.4605560005</v>
       </c>
       <c r="K40" s="6"/>
     </row>
     <row r="41" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="39" t="s">
+      <c r="A41" s="46" t="s">
         <v>61</v>
       </c>
-      <c r="B41" s="40"/>
-      <c r="C41" s="40"/>
-      <c r="D41" s="40"/>
-      <c r="E41" s="40"/>
-      <c r="F41" s="41"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="47"/>
+      <c r="D41" s="47"/>
+      <c r="E41" s="47"/>
+      <c r="F41" s="48"/>
       <c r="G41" s="14"/>
       <c r="H41" s="14"/>
       <c r="I41" s="14"/>
@@ -2307,97 +2307,97 @@
       <c r="K41" s="6"/>
     </row>
     <row r="42" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="39" t="s">
+      <c r="A42" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="40"/>
-      <c r="D42" s="40"/>
-      <c r="E42" s="40"/>
-      <c r="F42" s="41"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="47"/>
+      <c r="D42" s="47"/>
+      <c r="E42" s="47"/>
+      <c r="F42" s="48"/>
       <c r="G42" s="14"/>
       <c r="H42" s="14"/>
       <c r="I42" s="14"/>
       <c r="J42" s="11">
         <f t="shared" ref="J42" si="9">J40-J41</f>
-        <v>6338140.2644560002</v>
+        <v>6524144.4605560005</v>
       </c>
       <c r="K42" s="6"/>
     </row>
     <row r="43" spans="1:14" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="42" t="s">
+      <c r="A43" s="49" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="42"/>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="42"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="42"/>
-      <c r="I43" s="42"/>
-      <c r="J43" s="42"/>
-      <c r="K43" s="42"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
+      <c r="D43" s="49"/>
+      <c r="E43" s="49"/>
+      <c r="F43" s="49"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="49"/>
+      <c r="I43" s="49"/>
+      <c r="J43" s="49"/>
+      <c r="K43" s="49"/>
     </row>
     <row r="44" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="43"/>
-      <c r="C44" s="43"/>
-      <c r="D44" s="43"/>
-      <c r="E44" s="43"/>
-      <c r="F44" s="43"/>
-      <c r="G44" s="43"/>
-      <c r="H44" s="43"/>
-      <c r="I44" s="43"/>
-      <c r="J44" s="43"/>
-      <c r="K44" s="43"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="45"/>
+      <c r="D44" s="45"/>
+      <c r="E44" s="45"/>
+      <c r="F44" s="45"/>
+      <c r="G44" s="45"/>
+      <c r="H44" s="45"/>
+      <c r="I44" s="45"/>
+      <c r="J44" s="45"/>
+      <c r="K44" s="45"/>
     </row>
     <row r="45" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="43" t="s">
+      <c r="A45" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="B45" s="43"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="43"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43"/>
-      <c r="G45" s="43"/>
-      <c r="H45" s="43"/>
-      <c r="I45" s="43"/>
-      <c r="J45" s="43"/>
-      <c r="K45" s="43"/>
+      <c r="B45" s="45"/>
+      <c r="C45" s="45"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="45"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="45"/>
+      <c r="H45" s="45"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
     </row>
     <row r="46" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="43" t="s">
+      <c r="A46" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B46" s="43"/>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="43"/>
-      <c r="J46" s="43"/>
-      <c r="K46" s="43"/>
+      <c r="B46" s="45"/>
+      <c r="C46" s="45"/>
+      <c r="D46" s="45"/>
+      <c r="E46" s="45"/>
+      <c r="F46" s="45"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
+      <c r="J46" s="45"/>
+      <c r="K46" s="45"/>
     </row>
     <row r="47" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="43" t="s">
+      <c r="A47" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B47" s="43"/>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="43"/>
-      <c r="F47" s="43"/>
-      <c r="G47" s="43"/>
-      <c r="H47" s="43"/>
-      <c r="I47" s="43"/>
-      <c r="J47" s="43"/>
-      <c r="K47" s="43"/>
+      <c r="B47" s="45"/>
+      <c r="C47" s="45"/>
+      <c r="D47" s="45"/>
+      <c r="E47" s="45"/>
+      <c r="F47" s="45"/>
+      <c r="G47" s="45"/>
+      <c r="H47" s="45"/>
+      <c r="I47" s="45"/>
+      <c r="J47" s="45"/>
+      <c r="K47" s="45"/>
     </row>
     <row r="48" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A48" s="5"/>
@@ -2657,11 +2657,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A36:F36"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="A1:J1"/>
     <mergeCell ref="A44:K44"/>
     <mergeCell ref="A45:K45"/>
     <mergeCell ref="A46:K46"/>
@@ -2673,6 +2668,11 @@
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:K43"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="A1:J1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.35433070866141736" bottom="0.35433070866141736" header="0.31496062992125984" footer="0.31496062992125984"/>
